--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2613836.288672807</v>
+        <v>2611293.171704211</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>56.56995359489687</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>239.8079481415045</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>239.8079481415045</v>
+        <v>239.807948141505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>239.807948141505</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>76.84999287972502</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>95.7998356563574</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45.4458084395867</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>84.36365314375249</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>239.807948141505</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176904</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>239.807948141505</v>
       </c>
       <c r="V4" t="n">
-        <v>239.8079481415045</v>
+        <v>4.125052964299374</v>
       </c>
       <c r="W4" t="n">
-        <v>80.23311336493286</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>290.2905114143464</v>
+        <v>19.66260408536412</v>
       </c>
       <c r="E5" t="n">
-        <v>290.2905114143464</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2905114143464</v>
+        <v>290.2905114143467</v>
       </c>
       <c r="G5" t="n">
-        <v>255.6878824537563</v>
+        <v>12.74220307430065</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>290.2905114143467</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>111.7608855401375</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>150.6718910157313</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>153.4809373955885</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.00406368337435</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790358</v>
+        <v>15.09724236790352</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>55.92707647646515</v>
+        <v>194.6426402623424</v>
       </c>
       <c r="U6" t="n">
         <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>60.41791265082109</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.0153623856348</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>120.9099147197632</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1726536731728766</v>
+        <v>125.6496154441977</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.0380733165757</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>277.5544178475189</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>35.54361781414482</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>139.6887432323036</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710109</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>1.246984125153741e-13</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>130.1208074460223</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634825</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892496</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>100.9410961977529</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710095</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="18">
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833731</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4.019807611471108</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="23">
@@ -2327,13 +2327,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>118.481702125261</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400657</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.184474389242</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>68.11883945937053</v>
       </c>
       <c r="W34" t="n">
-        <v>36.22494343870545</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>75.55208621972771</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>39.52129633183167</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766861</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>803.0167550628461</v>
+        <v>510.5906378964936</v>
       </c>
       <c r="C2" t="n">
-        <v>803.0167550628461</v>
+        <v>510.5906378964936</v>
       </c>
       <c r="D2" t="n">
-        <v>745.8753877952735</v>
+        <v>510.5906378964936</v>
       </c>
       <c r="E2" t="n">
-        <v>503.6451371472891</v>
+        <v>510.5906378964936</v>
       </c>
       <c r="F2" t="n">
-        <v>261.4148864993047</v>
+        <v>503.6451371472901</v>
       </c>
       <c r="G2" t="n">
-        <v>19.18463585132036</v>
+        <v>261.4148864993053</v>
       </c>
       <c r="H2" t="n">
-        <v>19.18463585132036</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132036</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470325</v>
+        <v>40.41888584470337</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192954</v>
+        <v>122.9820404192956</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605484</v>
+        <v>262.3106962605488</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859556</v>
+        <v>449.0101090859564</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779376</v>
+        <v>643.3443219779391</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948968</v>
+        <v>813.5133472948986</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444232</v>
+        <v>924.2476725444251</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="R2" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="S2" t="n">
-        <v>803.0167550628461</v>
+        <v>803.0167550628482</v>
       </c>
       <c r="T2" t="n">
-        <v>803.0167550628461</v>
+        <v>588.2168933305593</v>
       </c>
       <c r="U2" t="n">
-        <v>803.0167550628461</v>
+        <v>510.5906378964936</v>
       </c>
       <c r="V2" t="n">
-        <v>803.0167550628461</v>
+        <v>510.5906378964936</v>
       </c>
       <c r="W2" t="n">
-        <v>803.0167550628461</v>
+        <v>510.5906378964936</v>
       </c>
       <c r="X2" t="n">
-        <v>803.0167550628461</v>
+        <v>510.5906378964936</v>
       </c>
       <c r="Y2" t="n">
-        <v>803.0167550628461</v>
+        <v>510.5906378964936</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>791.0164555459501</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="C3" t="n">
-        <v>616.5634262648231</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="D3" t="n">
-        <v>467.6290166035718</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="E3" t="n">
-        <v>308.3915615981163</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="F3" t="n">
-        <v>161.8570036250013</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="G3" t="n">
-        <v>161.8570036250013</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="H3" t="n">
-        <v>65.0894928610039</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132036</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="J3" t="n">
-        <v>85.30141548166254</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="K3" t="n">
-        <v>152.9092351450194</v>
+        <v>86.79245551467741</v>
       </c>
       <c r="L3" t="n">
-        <v>290.1388331607131</v>
+        <v>224.0220535303713</v>
       </c>
       <c r="M3" t="n">
-        <v>469.6361695153178</v>
+        <v>403.5193898849761</v>
       </c>
       <c r="N3" t="n">
-        <v>668.2929111679822</v>
+        <v>602.1761315376407</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367426</v>
+        <v>761.6884442064013</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640412</v>
+        <v>936.4948513640431</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="R3" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="S3" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="T3" t="n">
-        <v>959.231792566018</v>
+        <v>762.2424967261077</v>
       </c>
       <c r="U3" t="n">
-        <v>959.231792566018</v>
+        <v>762.2424967261077</v>
       </c>
       <c r="V3" t="n">
-        <v>959.231792566018</v>
+        <v>677.026685469792</v>
       </c>
       <c r="W3" t="n">
-        <v>959.231792566018</v>
+        <v>434.7964348218071</v>
       </c>
       <c r="X3" t="n">
-        <v>959.231792566018</v>
+        <v>226.9449346162743</v>
       </c>
       <c r="Y3" t="n">
-        <v>959.231792566018</v>
+        <v>19.1846358513204</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.1758630230188</v>
+        <v>356.7276637838439</v>
       </c>
       <c r="C4" t="n">
-        <v>187.1758630230188</v>
+        <v>187.791480855937</v>
       </c>
       <c r="D4" t="n">
-        <v>37.05922361068303</v>
+        <v>187.791480855937</v>
       </c>
       <c r="E4" t="n">
-        <v>37.05922361068303</v>
+        <v>187.791480855937</v>
       </c>
       <c r="F4" t="n">
-        <v>37.05922361068303</v>
+        <v>187.791480855937</v>
       </c>
       <c r="G4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="H4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="I4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132036</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469301</v>
+        <v>120.2325654469302</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477483</v>
+        <v>305.0655603477485</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4476363223396</v>
+        <v>510.3351610669864</v>
       </c>
       <c r="N4" t="n">
-        <v>656.2710011584438</v>
+        <v>716.1585259030907</v>
       </c>
       <c r="O4" t="n">
-        <v>830.3658965470427</v>
+        <v>890.2534212916895</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456582</v>
+        <v>955.8134731456602</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="R4" t="n">
-        <v>959.231792566018</v>
+        <v>828.7538312854228</v>
       </c>
       <c r="S4" t="n">
-        <v>959.231792566018</v>
+        <v>828.7538312854228</v>
       </c>
       <c r="T4" t="n">
-        <v>959.231792566018</v>
+        <v>603.1246345977878</v>
       </c>
       <c r="U4" t="n">
-        <v>959.231792566018</v>
+        <v>360.8943839498029</v>
       </c>
       <c r="V4" t="n">
-        <v>717.0015419180337</v>
+        <v>356.7276637838439</v>
       </c>
       <c r="W4" t="n">
-        <v>635.9579930645662</v>
+        <v>356.7276637838439</v>
       </c>
       <c r="X4" t="n">
-        <v>407.9684421665489</v>
+        <v>356.7276637838439</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.1758630230188</v>
+        <v>356.7276637838439</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1161.162045657386</v>
+        <v>755.2906303358707</v>
       </c>
       <c r="C5" t="n">
-        <v>1161.162045657386</v>
+        <v>755.2906303358707</v>
       </c>
       <c r="D5" t="n">
-        <v>867.9393068550156</v>
+        <v>735.4294140880281</v>
       </c>
       <c r="E5" t="n">
-        <v>574.7165680526455</v>
+        <v>735.4294140880281</v>
       </c>
       <c r="F5" t="n">
-        <v>281.4938292502753</v>
+        <v>442.2066752856578</v>
       </c>
       <c r="G5" t="n">
-        <v>23.22324091314772</v>
+        <v>429.3357630893944</v>
       </c>
       <c r="H5" t="n">
-        <v>23.22324091314772</v>
+        <v>136.113024287024</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314772</v>
+        <v>23.22324091314774</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382951947</v>
+        <v>59.13673382951976</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444952</v>
+        <v>163.7002683444956</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084633</v>
+        <v>330.3223409084636</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162854</v>
+        <v>547.3909387162861</v>
       </c>
       <c r="N5" t="n">
-        <v>772.5857417537038</v>
+        <v>772.5857417537043</v>
       </c>
       <c r="O5" t="n">
-        <v>971.89554724169</v>
+        <v>971.8955472416908</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171411</v>
+        <v>1107.500854171412</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657386</v>
+        <v>1161.162045657387</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657386</v>
+        <v>1161.162045657387</v>
       </c>
       <c r="S5" t="n">
-        <v>1161.162045657386</v>
+        <v>1008.968216348567</v>
       </c>
       <c r="T5" t="n">
-        <v>1161.162045657386</v>
+        <v>1008.968216348567</v>
       </c>
       <c r="U5" t="n">
-        <v>1161.162045657386</v>
+        <v>755.2906303358707</v>
       </c>
       <c r="V5" t="n">
-        <v>1161.162045657386</v>
+        <v>755.2906303358707</v>
       </c>
       <c r="W5" t="n">
-        <v>1161.162045657386</v>
+        <v>755.2906303358707</v>
       </c>
       <c r="X5" t="n">
-        <v>1161.162045657386</v>
+        <v>755.2906303358707</v>
       </c>
       <c r="Y5" t="n">
-        <v>1161.162045657386</v>
+        <v>755.2906303358707</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.22324091314772</v>
+        <v>278.2585955383628</v>
       </c>
       <c r="C6" t="n">
-        <v>23.22324091314772</v>
+        <v>278.2585955383628</v>
       </c>
       <c r="D6" t="n">
-        <v>23.22324091314772</v>
+        <v>278.2585955383628</v>
       </c>
       <c r="E6" t="n">
-        <v>23.22324091314772</v>
+        <v>123.2273456438289</v>
       </c>
       <c r="F6" t="n">
-        <v>23.22324091314772</v>
+        <v>123.2273456438289</v>
       </c>
       <c r="G6" t="n">
-        <v>23.22324091314772</v>
+        <v>123.2273456438289</v>
       </c>
       <c r="H6" t="n">
-        <v>23.22324091314772</v>
+        <v>23.22324091314774</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314772</v>
+        <v>23.22324091314774</v>
       </c>
       <c r="J6" t="n">
-        <v>25.79522430508919</v>
+        <v>25.79522430508926</v>
       </c>
       <c r="K6" t="n">
-        <v>235.7315125838851</v>
+        <v>108.3459783063293</v>
       </c>
       <c r="L6" t="n">
-        <v>393.0537298894965</v>
+        <v>265.6681956119409</v>
       </c>
       <c r="M6" t="n">
-        <v>595.9982052478088</v>
+        <v>468.6126709702532</v>
       </c>
       <c r="N6" t="n">
-        <v>818.7226619044693</v>
+        <v>691.337127626914</v>
       </c>
       <c r="O6" t="n">
-        <v>1000.2522317921</v>
+        <v>872.8666975145447</v>
       </c>
       <c r="P6" t="n">
-        <v>1126.612649313226</v>
+        <v>1126.612649313227</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657386</v>
+        <v>1161.162045657387</v>
       </c>
       <c r="R6" t="n">
-        <v>1145.912305891827</v>
+        <v>1145.912305891828</v>
       </c>
       <c r="S6" t="n">
-        <v>1145.912305891827</v>
+        <v>1145.912305891828</v>
       </c>
       <c r="T6" t="n">
-        <v>1089.420309450953</v>
+        <v>949.3035783541081</v>
       </c>
       <c r="U6" t="n">
-        <v>861.2877336319041</v>
+        <v>721.1710025350594</v>
       </c>
       <c r="V6" t="n">
-        <v>861.2877336319041</v>
+        <v>486.0188943033167</v>
       </c>
       <c r="W6" t="n">
-        <v>607.0503769037025</v>
+        <v>486.0188943033167</v>
       </c>
       <c r="X6" t="n">
-        <v>399.1988766981697</v>
+        <v>486.0188943033167</v>
       </c>
       <c r="Y6" t="n">
-        <v>191.4385779332158</v>
+        <v>278.2585955383628</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>912.7612024199544</v>
+        <v>171.1363344955409</v>
       </c>
       <c r="C7" t="n">
-        <v>743.8250194920475</v>
+        <v>171.1363344955409</v>
       </c>
       <c r="D7" t="n">
-        <v>593.7083800797118</v>
+        <v>171.1363344955409</v>
       </c>
       <c r="E7" t="n">
-        <v>445.7952864973187</v>
+        <v>23.22324091314774</v>
       </c>
       <c r="F7" t="n">
-        <v>298.9053389994083</v>
+        <v>23.22324091314774</v>
       </c>
       <c r="G7" t="n">
-        <v>298.9053389994083</v>
+        <v>23.22324091314774</v>
       </c>
       <c r="H7" t="n">
-        <v>145.3544679028075</v>
+        <v>23.22324091314774</v>
       </c>
       <c r="I7" t="n">
-        <v>23.22324091314772</v>
+        <v>23.22324091314774</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314772</v>
+        <v>23.22324091314774</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279147</v>
+        <v>133.2846894279148</v>
       </c>
       <c r="L7" t="n">
-        <v>329.651885299304</v>
+        <v>329.6518852993042</v>
       </c>
       <c r="M7" t="n">
-        <v>547.082683727699</v>
+        <v>547.0826837276993</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730499</v>
+        <v>764.7780801730504</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967862</v>
+        <v>949.8387182967867</v>
       </c>
       <c r="P7" t="n">
         <v>1084.669382195908</v>
@@ -4747,28 +4747,28 @@
         <v>1094.584064899864</v>
       </c>
       <c r="R7" t="n">
-        <v>1094.409667250194</v>
+        <v>967.6652614208768</v>
       </c>
       <c r="S7" t="n">
-        <v>1094.409667250194</v>
+        <v>967.6652614208768</v>
       </c>
       <c r="T7" t="n">
-        <v>1094.409667250194</v>
+        <v>742.3742782728206</v>
       </c>
       <c r="U7" t="n">
-        <v>1094.409667250194</v>
+        <v>742.3742782728206</v>
       </c>
       <c r="V7" t="n">
-        <v>1094.409667250194</v>
+        <v>742.3742782728206</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.409667250194</v>
+        <v>452.9571082358599</v>
       </c>
       <c r="X7" t="n">
-        <v>1094.409667250194</v>
+        <v>452.9571082358599</v>
       </c>
       <c r="Y7" t="n">
-        <v>1094.409667250194</v>
+        <v>232.1645290923298</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>438.8191504929254</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="C8" t="n">
-        <v>69.85663355251366</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251366</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251366</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331018</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4817,37 +4817,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2526.436684143444</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2526.436684143444</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2272.855623407624</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>1941.792736064053</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W8" t="n">
-        <v>1589.024080793939</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X8" t="n">
-        <v>1215.558322532859</v>
+        <v>1502.660066001257</v>
       </c>
       <c r="Y8" t="n">
-        <v>825.4189905570472</v>
+        <v>1112.520734025445</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4878,34 +4878,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>1057.327935297105</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.02341329261</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4920,10 +4920,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>298.2016738773002</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>298.2016738773002</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>298.2016738773002</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>298.2016738773002</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>298.2016738773002</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>298.2016738773002</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>700.6427178510701</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>700.6427178510701</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>479.8501387075399</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5027,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>228.9331431646407</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358614</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1058.18352155162</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036844</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,19 +5264,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5285,43 +5285,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>699.7311804011405</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>699.7311804011405</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888046</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888046</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602299</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396412</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359451</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614338</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>881.3796452313803</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,7 +5516,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,40 +5525,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998278</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998278</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998278</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,52 +5738,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1140.291933891998</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446605</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876682</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597612</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597612</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597612</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>265.0731740618508</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>97.87707477673058</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>97.87707477673058</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614383</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179081</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179076</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900006</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>443.4949469776648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>295.5818533952715</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>295.5818533952715</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>295.5818533952715</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614379</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179076</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6309,22 +6309,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,52 +6449,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123002</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6601,22 +6601,22 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6677,34 +6677,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6716,10 +6716,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398594</v>
@@ -6731,7 +6731,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E34" t="n">
         <v>549.6145409888042</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947402</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741515</v>
+        <v>1619.578945309888</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1330.161775272927</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>881.3796452313796</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,7 +6947,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6962,13 +6962,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>803.2707707770305</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>634.3345878491236</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.2179484367879</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797189</v>
@@ -7102,43 +7102,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.7118147508</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>984.9192356072703</v>
       </c>
     </row>
     <row r="38">
@@ -7169,10 +7169,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075811</v>
@@ -7199,13 +7199,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,40 +7421,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.46766635706</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,25 +7546,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7640,55 +7640,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,19 +7719,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438171</v>
@@ -7783,25 +7783,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>73.01783107116299</v>
+        <v>6.233205181928398</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>66.7846258892354</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8143,7 +8143,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>118.017211672429</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8152,7 +8152,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>74.51411407702598</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506798</v>
+        <v>54.7423662450679</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>128.6722568460162</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>128.672256846016</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>35.9162744517248</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>16.31315520054699</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>117.643557154342</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393165</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>77.24602870709451</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>21.81301072096296</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>32.15184655856214</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,10 +25132,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>184.0188038644575</v>
       </c>
       <c r="W34" t="n">
-        <v>250.2980548978855</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>70.88187642684146</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25366,13 +25366,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>100.7734165143922</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194177</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>796805.8680496748</v>
+        <v>796805.8680496749</v>
       </c>
     </row>
     <row r="3">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>778988.1490057523</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.415891427</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520048</v>
-      </c>
       <c r="J2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="L2" t="n">
         <v>645717.2797520052</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="N2" t="n">
         <v>645717.2797520052</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520052</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800889</v>
+        <v>652246.4444800895</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342210971</v>
+        <v>55881.32342210964</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.886627624</v>
+        <v>363279.8866276238</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353582</v>
+        <v>62744.31078353585</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440495</v>
+        <v>12992.59634440482</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666268</v>
+        <v>88656.33991666253</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261062.8075060264</v>
+        <v>261062.8075060263</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431038</v>
+        <v>246054.6603431037</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828189</v>
+        <v>143951.0939828188</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683024</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683024</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.8641468303</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683041</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683042</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437328</v>
+        <v>61145.70223437332</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302702</v>
+        <v>65162.40123302705</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984472</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-317621.5383290617</v>
+        <v>-317621.5383290625</v>
       </c>
       <c r="C6" t="n">
-        <v>289735.030893186</v>
+        <v>289735.0308931866</v>
       </c>
       <c r="D6" t="n">
-        <v>56664.66284113935</v>
+        <v>56664.66284113978</v>
       </c>
       <c r="E6" t="n">
-        <v>24112.44415672161</v>
+        <v>24077.70623128598</v>
       </c>
       <c r="F6" t="n">
-        <v>531597.8857812679</v>
+        <v>531563.1478558317</v>
       </c>
       <c r="G6" t="n">
-        <v>531597.8857812672</v>
+        <v>531563.147855832</v>
       </c>
       <c r="H6" t="n">
-        <v>531597.8857812673</v>
+        <v>531563.147855832</v>
       </c>
       <c r="I6" t="n">
-        <v>531597.8857812672</v>
+        <v>531563.147855832</v>
       </c>
       <c r="J6" t="n">
-        <v>468853.5749977314</v>
+        <v>468818.8370722962</v>
       </c>
       <c r="K6" t="n">
-        <v>518605.2894368625</v>
+        <v>518570.551511427</v>
       </c>
       <c r="L6" t="n">
-        <v>442941.5458646051</v>
+        <v>442906.8079391695</v>
       </c>
       <c r="M6" t="n">
-        <v>398990.5920523409</v>
+        <v>398955.8541269048</v>
       </c>
       <c r="N6" t="n">
-        <v>531597.8857812677</v>
+        <v>531563.147855832</v>
       </c>
       <c r="O6" t="n">
-        <v>531597.8857812677</v>
+        <v>531563.1478558321</v>
       </c>
       <c r="P6" t="n">
-        <v>531597.8857812678</v>
+        <v>531563.147855832</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380646</v>
+        <v>593.476100338065</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575579</v>
+        <v>636.9329421575583</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,34 +26787,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.807948141505</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143464</v>
+        <v>290.2905114143467</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
@@ -26826,10 +26826,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="P4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-1.246984125153741e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,34 +26957,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380646</v>
+        <v>593.476100338065</v>
       </c>
       <c r="C3" t="n">
         <v>43.45684181949332</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599813</v>
+        <v>297.1319499599811</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>-2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.807948141505</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327284194</v>
+        <v>50.48256327284173</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856925</v>
+        <v>350.2943206856921</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,22 +27027,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.8079481415047</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284194</v>
+        <v>50.48256327284219</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856928</v>
+        <v>350.2943206856922</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.807948141505</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284194</v>
+        <v>50.48256327284173</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856925</v>
+        <v>350.2943206856921</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>298.1130880257861</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>142.1224219307573</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>167.0680976002069</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>173.1089558044323</v>
+        <v>173.1089558044318</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>75.23293593371054</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938904</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>174.3047933425756</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>4.106982420286059</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183515</v>
+        <v>20.90078060183511</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>148.4369340056728</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>11.88703501941458</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
@@ -27558,7 +27558,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.695841881769</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001187</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>46.45270651659197</v>
       </c>
       <c r="V4" t="n">
-        <v>12.32969518232349</v>
+        <v>248.0125903595286</v>
       </c>
       <c r="W4" t="n">
-        <v>206.2898849716581</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>64.39253020633652</v>
+        <v>335.0204375353188</v>
       </c>
       <c r="E5" t="n">
-        <v>91.63985865791534</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>116.585534327365</v>
+        <v>116.5855343273647</v>
       </c>
       <c r="G5" t="n">
-        <v>157.0543206205444</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>313.2517287735718</v>
+        <v>22.96121735922508</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401375</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157313</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>211.8871100493787</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1408101525697</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>4.164143059812432</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>99.00406368337435</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370913</v>
+        <v>42.2275423237091</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,22 +27743,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.2358974242411</v>
+        <v>146.235897424241</v>
       </c>
       <c r="T6" t="n">
-        <v>138.7155637858773</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>119.4140675311162</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8424117578468</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>120.9099147197632</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340512</v>
+        <v>12.15545075340508</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.4769617710248</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.0001972153979</v>
       </c>
       <c r="T7" t="n">
-        <v>223.0380733165757</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2563802146393</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>105.1794238159617</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>87.90859758464956</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>7.562765922825292</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28065,16 +28065,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193757</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28482,28 +28482,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-9.576105903760651e-14</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1.246984125153741e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1.246984125153741e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.246984125153741e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-1.246984125153741e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-1.246984125153741e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.246984125153741e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.246984125153741e-13</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28530,28 +28530,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.246984125153741e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.246984125153741e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1.246984125153741e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-5.45708939084265e-12</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.246984125153741e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-1.246984125153741e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-1.246984125153741e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.246984125153741e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29961,7 +29961,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-1.8733447794294e-12</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198248</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055156</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651554</v>
+        <v>91.97984867651559</v>
       </c>
       <c r="J2" t="n">
-        <v>202.49464189374</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779019</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L2" t="n">
-        <v>376.5024309712528</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074821</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N2" t="n">
-        <v>425.7102483359667</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822516</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P2" t="n">
-        <v>343.0858495426698</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457574</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411496</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810513</v>
+        <v>54.36718245810516</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916533</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840365</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H3" t="n">
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182838</v>
+        <v>43.9508244118284</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847382</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070427</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L3" t="n">
-        <v>277.170135351282</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842452</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900651</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947075</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671572</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607456</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080798</v>
+        <v>79.25705355080802</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784624</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308313</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897144</v>
+        <v>0.0839824670289715</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888313</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207009</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784128</v>
+        <v>32.1839170478413</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490373</v>
+        <v>75.66333823490378</v>
       </c>
       <c r="K4" t="n">
-        <v>124.338107579024</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889952</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676925</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N4" t="n">
-        <v>163.770216344109</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714136</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P4" t="n">
-        <v>129.4361645720919</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104776</v>
+        <v>89.6148911510478</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937814</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S4" t="n">
-        <v>18.6507161368536</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522791</v>
+        <v>4.572684707522794</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.05837469839390809</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834402</v>
+        <v>2.560534440834403</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219532</v>
+        <v>26.22307334219534</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026837</v>
+        <v>98.71500403026842</v>
       </c>
       <c r="J5" t="n">
-        <v>217.322159997769</v>
+        <v>217.3221599977691</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782893</v>
+        <v>325.7095828782895</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719752</v>
+        <v>404.0715387719754</v>
       </c>
       <c r="M5" t="n">
-        <v>449.607443134164</v>
+        <v>449.6074431341642</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141848</v>
+        <v>456.882561614185</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681377</v>
+        <v>431.4212472681379</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2080532600383</v>
+        <v>368.2080532600385</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976562</v>
+        <v>276.5089135976564</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690641</v>
+        <v>160.8431715690642</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051399</v>
+        <v>58.34817857051402</v>
       </c>
       <c r="T5" t="n">
-        <v>11.2087395147526</v>
+        <v>11.20873951475261</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667521</v>
+        <v>0.2048427552667522</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.37000670577286</v>
+        <v>1.370006705772861</v>
       </c>
       <c r="H6" t="n">
-        <v>13.2313805531221</v>
+        <v>13.23138055312211</v>
       </c>
       <c r="I6" t="n">
-        <v>47.16909052770595</v>
+        <v>47.16909052770598</v>
       </c>
       <c r="J6" t="n">
-        <v>129.4355896888298</v>
+        <v>129.4355896888299</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756114</v>
+        <v>221.2260389756115</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916029</v>
+        <v>297.4657103916031</v>
       </c>
       <c r="M6" t="n">
-        <v>347.128453475869</v>
+        <v>347.1284534758692</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264248</v>
+        <v>356.315910726425</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511419</v>
+        <v>325.9594463511421</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892053</v>
+        <v>261.6111927892054</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316374</v>
+        <v>174.8801542316375</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473956</v>
+        <v>85.06059178473961</v>
       </c>
       <c r="S6" t="n">
-        <v>25.44727367959675</v>
+        <v>25.44727367959677</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479203</v>
+        <v>5.522088432479206</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0901320201166356</v>
+        <v>0.09013202011663564</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,43 +31440,43 @@
         <v>10.21181012180479</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749512</v>
+        <v>34.54056020749513</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326766</v>
+        <v>81.2037293632677</v>
       </c>
       <c r="K7" t="n">
-        <v>133.4426721438293</v>
+        <v>133.4426721438294</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400771</v>
+        <v>170.7606776400772</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577503</v>
+        <v>180.0431921577504</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645603</v>
+        <v>175.7621674645604</v>
       </c>
       <c r="O7" t="n">
-        <v>162.3448095846838</v>
+        <v>162.3448095846839</v>
       </c>
       <c r="P7" t="n">
-        <v>138.9140305321991</v>
+        <v>138.9140305321992</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579124</v>
+        <v>96.1768742657913</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297181</v>
+        <v>51.64377593297183</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157439</v>
+        <v>20.0164008215744</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705773</v>
+        <v>4.907516111705775</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156314</v>
+        <v>0.06264914185156317</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,34 +31838,34 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>263.3189197138069</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>301.644515672455</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.938548003214</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075158</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120936</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>550.5977692975237</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33494,10 +33494,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>535.8585467435946</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214699</v>
@@ -33521,7 +33521,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,19 +33731,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>391.6051949514473</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
@@ -33758,7 +33758,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214699</v>
@@ -33995,7 +33995,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
@@ -34205,13 +34205,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048113</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34445,16 +34445,16 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394812</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.4487373670537</v>
+        <v>21.44873736705381</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292135</v>
+        <v>83.39712583292152</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012656</v>
+        <v>140.7360160012658</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802094</v>
+        <v>188.5852654802096</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393758</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605649</v>
+        <v>171.8879043605651</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874002</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130796</v>
+        <v>35.33749497130813</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>66.78462588923452</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.2907269326837</v>
+        <v>68.29072693268384</v>
       </c>
       <c r="L3" t="n">
-        <v>138.6157555714078</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M3" t="n">
-        <v>181.3104407622268</v>
+        <v>181.310440762227</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067318</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O3" t="n">
-        <v>161.123548150263</v>
+        <v>161.1235481502632</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528269</v>
+        <v>176.5721284420625</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472408</v>
+        <v>22.9666072747242</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531411</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493114</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M4" t="n">
-        <v>146.8505817925165</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233376</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854533</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369854</v>
+        <v>66.22227459997036</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353372</v>
+        <v>3.452847899353415</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108272</v>
+        <v>36.27625547108283</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333088</v>
+        <v>105.6197318333089</v>
       </c>
       <c r="L5" t="n">
-        <v>168.305123801988</v>
+        <v>168.3051238019882</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068913</v>
+        <v>219.2612099068915</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175939</v>
+        <v>227.4694980175941</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464509</v>
+        <v>201.3230358464512</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047688</v>
+        <v>136.975057504769</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320672</v>
+        <v>54.20322372320689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5979630221631</v>
+        <v>2.597963022163157</v>
       </c>
       <c r="K6" t="n">
-        <v>212.0568568472686</v>
+        <v>83.38460000125255</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117287</v>
+        <v>158.9113306117289</v>
       </c>
       <c r="M6" t="n">
-        <v>204.9944195538507</v>
+        <v>204.9944195538509</v>
       </c>
       <c r="N6" t="n">
-        <v>224.9741986430915</v>
+        <v>224.9741986430917</v>
       </c>
       <c r="O6" t="n">
-        <v>183.3632019066975</v>
+        <v>183.3632019066977</v>
       </c>
       <c r="P6" t="n">
-        <v>127.636785374875</v>
+        <v>256.3090422208911</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.89838014561593</v>
+        <v>34.89838014561602</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179464</v>
+        <v>111.1731803179465</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003932</v>
+        <v>198.3507029003933</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195909</v>
+        <v>219.627069119591</v>
       </c>
       <c r="N7" t="n">
-        <v>219.8943398437889</v>
+        <v>219.894339843789</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987235</v>
+        <v>186.9299374987236</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970926</v>
+        <v>136.1925897970927</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409686</v>
+        <v>10.01483101409691</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>371.3409564478479</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>136.4812930471402</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>159.0482712280106</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36057,10 +36057,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811957</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36294,10 +36294,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630714</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36525,16 +36525,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287602</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>416.6233618831934</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>393.2623022991502</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071396</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>253.0508151715731</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010433</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071396</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>205.0040068187898</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>91.80490927281451</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
